--- a/docs/trim3/Presupuesto.xlsx
+++ b/docs/trim3/Presupuesto.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A3FD9D-BB7F-4AFF-9B0F-5B56D4B05B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13905" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
+    <workbookView windowWidth="26715" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -181,13 +164,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,7 +184,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,19 +192,356 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -224,10 +550,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -240,21 +605,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -274,13 +624,22 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -296,22 +655,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -320,34 +664,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -356,15 +672,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -377,7 +702,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -386,6 +724,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -407,7 +769,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -423,6 +826,51 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -436,25 +884,66 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,272 +951,395 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -776,7 +1388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -809,26 +1421,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -861,23 +1456,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1019,722 +1597,720 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28666666666667" customWidth="1"/>
+    <col min="2" max="2" width="3.57333333333333" customWidth="1"/>
+    <col min="3" max="3" width="4.14" customWidth="1"/>
+    <col min="4" max="4" width="20.2866666666667" customWidth="1"/>
+    <col min="5" max="5" width="46.5733333333333" customWidth="1"/>
+    <col min="6" max="6" width="52.2866666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.2866666666667" customWidth="1"/>
+    <col min="8" max="8" width="8.85333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.5733333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.4266666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.8533333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="B4" s="18" t="s">
+    <row r="3" ht="15.75"/>
+    <row r="4" customHeight="1" spans="2:12">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="19"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="49" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="28">
         <v>5</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="40">
         <v>4398900</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="24">
+      <c r="K5" s="41"/>
+      <c r="L5" s="42">
         <f>J5*H5</f>
         <v>21994500</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="19"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="5" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="31">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4">
-        <v>231943</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="25">
+      <c r="J6" s="43">
+        <v>208519</v>
+      </c>
+      <c r="K6" s="44">
+        <v>30</v>
+      </c>
+      <c r="L6" s="45">
         <f>J6*H6</f>
-        <v>231943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="19"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="5" t="s">
+        <v>208519</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="31">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="43">
         <v>192900</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="25">
+      <c r="K7" s="44"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L6:L11" si="0">J7*H7</f>
         <v>964500</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="19"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="5" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="31">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4">
-        <v>239900</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="25">
+      <c r="J8" s="43">
+        <v>218900</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45">
         <f t="shared" si="0"/>
-        <v>959600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="19"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="5" t="s">
+        <v>875600</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="31">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="43">
         <v>32330</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="25">
+      <c r="K9" s="44"/>
+      <c r="L9" s="45">
         <f t="shared" si="0"/>
         <v>129320</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="19"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="5" t="s">
+    <row r="10" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="31">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="43">
         <v>34900</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="25">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45">
         <f t="shared" si="0"/>
         <v>139600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="8" t="s">
+    <row r="11" ht="16.5" customHeight="1" spans="2:12">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="31">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="25">
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="19"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="26" t="s">
+    <row r="12" spans="2:12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="31">
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="43">
         <v>70000</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="44">
         <v>30</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="45">
         <f>J12*H12*K12</f>
         <v>2100000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="19"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="5" t="s">
+    <row r="13" spans="2:12">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="31">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="43">
         <v>70000</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="44">
         <v>30</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="45">
         <f t="shared" ref="L13:L16" si="1">J13*H13*K13</f>
         <v>2100000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="19"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="5" t="s">
+    <row r="14" spans="2:12">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="31">
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="43">
         <v>70000</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="44">
         <v>30</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="45">
         <f t="shared" si="1"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="19"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="8" t="s">
+    <row r="15" spans="2:12">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="31">
         <v>1</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="43">
         <v>50000</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="44">
         <v>30</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="45">
         <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="19"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="5" t="s">
+    <row r="16" ht="15.75" spans="2:12">
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="31">
         <v>1</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="43">
         <v>70000</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="44">
         <v>15</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="45">
         <f t="shared" si="1"/>
         <v>1050000</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="46"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="31">
         <v>1</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="43">
         <v>60000</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="25">
+      <c r="K17" s="44"/>
+      <c r="L17" s="45">
         <f>J17*H17</f>
         <v>60000</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="46"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="3" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="31">
         <v>1</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="43">
         <v>80000</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="25">
+      <c r="K18" s="44"/>
+      <c r="L18" s="45">
         <f t="shared" ref="L18:L21" si="2">J18*H18</f>
         <v>80000</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="46"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="31">
         <v>1</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="43">
         <v>100000</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="25">
+      <c r="K19" s="44"/>
+      <c r="L19" s="45">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="46"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="31">
         <v>1</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="43">
         <v>900000</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="25">
+      <c r="K20" s="44"/>
+      <c r="L20" s="45">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="47"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" ht="15.75" spans="2:12">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="31">
         <v>1</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="43">
         <v>150000</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="25">
+      <c r="K21" s="44"/>
+      <c r="L21" s="45">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="31">
         <v>1</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="43">
         <v>90000</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="44">
         <v>5</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="45">
         <f t="shared" ref="L22:L26" si="3">J22*H22*K22</f>
         <v>450000</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="21"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="5" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="31">
         <v>1</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="43">
         <v>30000</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="44">
         <v>5</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="45">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="21"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="5" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="31">
         <v>1</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="43">
         <v>30000</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="44">
         <v>5</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="45">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="21"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="5" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="29"/>
+      <c r="G25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="31">
         <v>1</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="43">
         <v>30000</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="44">
         <v>5</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="45">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="21"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="5" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="31">
         <v>1</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="43">
         <v>30000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="44">
         <v>5</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="45">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="22"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="s">
+    <row r="27" ht="15.75" spans="2:12">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="37">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="46">
         <v>433900</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="39">
+      <c r="K27" s="47"/>
+      <c r="L27" s="48">
         <f>J27*H27</f>
         <v>433900</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="18.75">
-      <c r="J28" s="2"/>
-      <c r="L28" s="38">
+    <row r="28" ht="18.75" spans="10:12">
+      <c r="J28" s="49"/>
+      <c r="L28" s="50">
         <f>SUM(L5:L26)</f>
-        <v>35609463</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>35502039</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10">
       <c r="J29"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="10:10">
       <c r="J30"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="10:10">
       <c r="J31"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="10:10">
       <c r="J32"/>
     </row>
     <row r="33" spans="10:10">
@@ -1757,23 +2333,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B4:B21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D12:D16"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
@@ -1781,12 +2340,30 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B4:B21"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="B22:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>